--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="103">
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
   <si>
     <t>Signal_Value_43</t>
   </si>
@@ -682,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -932,10 +935,13 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -944,46 +950,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1295698421646648</v>
       </c>
       <c r="E2">
-        <v>0.3454555171341648</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06899992943258881</v>
+        <v>0.1901216916501233</v>
       </c>
       <c r="G2">
-        <v>0.1614516744345657</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.07378648058782403</v>
       </c>
       <c r="I2">
-        <v>0.09739379129742032</v>
+        <v>0.2133336941475609</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1026763280834751</v>
       </c>
       <c r="K2">
-        <v>0.1346899374938851</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06341224457425251</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03881866319975229</v>
+        <v>0.2105992640211597</v>
       </c>
       <c r="N2">
-        <v>0.02178154022335783</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.01851384297378073</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01894067998024183</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -992,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02113160414588096</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.007108901262511453</v>
       </c>
       <c r="V2">
-        <v>0.008002332220947194</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01269988151506247</v>
       </c>
       <c r="X2">
-        <v>0.02286230052316134</v>
+        <v>0.000654158790193875</v>
       </c>
       <c r="Y2">
-        <v>0.003595077083616135</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1016,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.004440337089376086</v>
       </c>
       <c r="AC2">
-        <v>0.00118813627999412</v>
+        <v>0.007205275574564177</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1037,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.00773186098736146</v>
       </c>
       <c r="AJ2">
-        <v>0.01383501312851312</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1177,10 +1183,13 @@
       <c r="CC2">
         <v>0</v>
       </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1189,52 +1198,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05190101161997565</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06301191315488792</v>
+        <v>0.2671397651818446</v>
       </c>
       <c r="F3">
-        <v>0.3515470393177259</v>
+        <v>0.003869470063307822</v>
       </c>
       <c r="G3">
-        <v>0.01754675919987499</v>
+        <v>0.2546653966988548</v>
       </c>
       <c r="H3">
-        <v>0.02000187767860808</v>
+        <v>0.05553208891670811</v>
       </c>
       <c r="I3">
-        <v>0.1192259005420184</v>
+        <v>0.131030088904412</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06662000972527843</v>
+        <v>0.001826077458850944</v>
       </c>
       <c r="L3">
-        <v>0.1549360628871356</v>
+        <v>0.01533720532774788</v>
       </c>
       <c r="M3">
-        <v>0.07693565887647646</v>
+        <v>0.1560069258257152</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05064924117804098</v>
+        <v>0.04695736121166787</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0401187684483356</v>
       </c>
       <c r="Q3">
-        <v>0.002586245488680401</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.005637031350356311</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1246,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.008413757272152607</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.006291796593882003</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.006832338797995448</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1264,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.002146759798058034</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.008381268912907606</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.004344255772566044</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1282,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004695695114906229</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.005812228681027926</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1422,10 +1431,13 @@
       <c r="CC3">
         <v>0</v>
       </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1434,43 +1446,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.189069297098704</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3972252906417836</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02880281338782445</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.08672919109323794</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06313498619072744</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0218072403715334</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08132000075926817</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04563329297980062</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.005361781275565651</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.005926727759217477</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.008963618824198877</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1485,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.008433358817450961</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.004997269498938303</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001030967072878661</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1506,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01619422438923123</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01688406860818609</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1527,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01848587123145311</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1575,37 +1587,37 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.4121370161436298</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.1378595636869396</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.1029402777994161</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.03182528741788553</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.03367180977898312</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.04063057805676245</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.07144383239691549</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.04819759578688914</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.006189936868692311</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.06812034372667235</v>
       </c>
       <c r="BJ4">
         <v>0</v>
@@ -1623,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.0007304443823860934</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.01164225901577011</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.01639823761347547</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.009619442632372141</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.008593374693210436</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -1667,10 +1679,13 @@
       <c r="CC4">
         <v>0</v>
       </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1685,40 +1700,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.262894280987862</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.02029404803172878</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2835476654032347</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01678509401067352</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1056080807598013</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.002742837880433329</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03771026549957669</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0667848490744259</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04172523259481793</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02738174841217924</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.07443170335729436</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.002439057479268789</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1736,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.005410930780117188</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.006861166410795883</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0204578402964134</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1757,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01067805750346882</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01424714151790825</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1817,43 +1832,43 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.3412209165654894</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1430583231760353</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.1590394644714765</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.1141425790184046</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.04284770300733779</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.08322143177970087</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.03418159769000654</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01678091019150602</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01547476241566395</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -1868,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.007829365291308066</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.005503433546043419</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -1889,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01025793049142483</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001106333683186639</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -1907,15 +1922,18 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.006931340748219807</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01840390792419638</v>
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1924,46 +1942,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2569698978366779</v>
+        <v>0.2583014323283143</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3285464972262234</v>
+        <v>0.3139475212019018</v>
       </c>
       <c r="G6">
-        <v>0.009074404416639221</v>
+        <v>0.02764322588602534</v>
       </c>
       <c r="H6">
-        <v>0.08092126561966954</v>
+        <v>0.1132515913767564</v>
       </c>
       <c r="I6">
-        <v>0.03465868998413587</v>
+        <v>0.02701901519239199</v>
       </c>
       <c r="J6">
-        <v>0.007473657431153437</v>
+        <v>0.01291168666223315</v>
       </c>
       <c r="K6">
-        <v>0.1276677942224296</v>
+        <v>0.0484089357101613</v>
       </c>
       <c r="L6">
-        <v>0.06454831215509539</v>
+        <v>0.0532118426394587</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002916433835806755</v>
+        <v>0.0433288700868171</v>
       </c>
       <c r="O6">
-        <v>0.009982087413985138</v>
+        <v>0.01100559239986881</v>
       </c>
       <c r="P6">
-        <v>0.02246599803863679</v>
+        <v>0.001913037033312295</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0001079406720931751</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1972,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001645905900518381</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004119700699943178</v>
+        <v>0.006717954156581079</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01009676858763494</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01449070241359479</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1996,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.002983326079026218</v>
+        <v>0.01140578167443881</v>
       </c>
       <c r="AC6">
-        <v>0.009285467205851031</v>
+        <v>0.03307910996751376</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01575460149989804</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2017,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02926858379879947</v>
+        <v>0.007501159098639298</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2155,6 +2173,9 @@
         <v>0</v>
       </c>
       <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
         <v>0</v>
       </c>
     </row>
@@ -2165,15 +2186,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2415,10 +2436,13 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2427,100 +2451,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1295698421646648</v>
       </c>
       <c r="E2">
-        <v>0.3454555171341648</v>
+        <v>0.1295698421646648</v>
       </c>
       <c r="F2">
-        <v>0.4144554465667536</v>
+        <v>0.3196915338147881</v>
       </c>
       <c r="G2">
-        <v>0.5759071210013194</v>
+        <v>0.3196915338147881</v>
       </c>
       <c r="H2">
-        <v>0.5759071210013194</v>
+        <v>0.3934780144026121</v>
       </c>
       <c r="I2">
-        <v>0.6733009122987397</v>
+        <v>0.606811708550173</v>
       </c>
       <c r="J2">
-        <v>0.6733009122987397</v>
+        <v>0.7094880366336481</v>
       </c>
       <c r="K2">
-        <v>0.8079908497926247</v>
+        <v>0.7094880366336481</v>
       </c>
       <c r="L2">
-        <v>0.8714030943668772</v>
+        <v>0.7094880366336481</v>
       </c>
       <c r="M2">
-        <v>0.9102217575666295</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="N2">
-        <v>0.9320032977899874</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="O2">
-        <v>0.9505171407637681</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="P2">
-        <v>0.9505171407637681</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="Q2">
-        <v>0.9505171407637681</v>
+        <v>0.9390279806350497</v>
       </c>
       <c r="R2">
-        <v>0.9505171407637681</v>
+        <v>0.9390279806350497</v>
       </c>
       <c r="S2">
-        <v>0.9505171407637681</v>
+        <v>0.9390279806350497</v>
       </c>
       <c r="T2">
-        <v>0.9505171407637681</v>
+        <v>0.9601595847809307</v>
       </c>
       <c r="U2">
-        <v>0.9505171407637681</v>
+        <v>0.9672684860434421</v>
       </c>
       <c r="V2">
-        <v>0.9585194729847153</v>
+        <v>0.9672684860434421</v>
       </c>
       <c r="W2">
-        <v>0.9585194729847153</v>
+        <v>0.9799683675585046</v>
       </c>
       <c r="X2">
-        <v>0.9813817735078766</v>
+        <v>0.9806225263486985</v>
       </c>
       <c r="Y2">
-        <v>0.9849768505914928</v>
+        <v>0.9806225263486985</v>
       </c>
       <c r="Z2">
-        <v>0.9849768505914928</v>
+        <v>0.9806225263486985</v>
       </c>
       <c r="AA2">
-        <v>0.9849768505914928</v>
+        <v>0.9806225263486985</v>
       </c>
       <c r="AB2">
-        <v>0.9849768505914928</v>
+        <v>0.9850628634380746</v>
       </c>
       <c r="AC2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AD2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AE2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AF2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AG2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AH2">
-        <v>0.9861649868714869</v>
+        <v>0.9922681390126388</v>
       </c>
       <c r="AI2">
-        <v>0.9861649868714869</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -2660,10 +2684,13 @@
       <c r="CC2">
         <v>1</v>
       </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2672,243 +2699,246 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05190101161997565</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1149129247748636</v>
+        <v>0.2671397651818446</v>
       </c>
       <c r="F3">
-        <v>0.4664599640925895</v>
+        <v>0.2710092352451525</v>
       </c>
       <c r="G3">
-        <v>0.4840067232924645</v>
+        <v>0.5256746319440073</v>
       </c>
       <c r="H3">
-        <v>0.5040086009710726</v>
+        <v>0.5812067208607155</v>
       </c>
       <c r="I3">
-        <v>0.6232345015130909</v>
+        <v>0.7122368097651275</v>
       </c>
       <c r="J3">
-        <v>0.6232345015130909</v>
+        <v>0.7122368097651275</v>
       </c>
       <c r="K3">
-        <v>0.6898545112383694</v>
+        <v>0.7140628872239785</v>
       </c>
       <c r="L3">
-        <v>0.844790574125505</v>
+        <v>0.7294000925517263</v>
       </c>
       <c r="M3">
-        <v>0.9217262330019814</v>
+        <v>0.8854070183774415</v>
       </c>
       <c r="N3">
-        <v>0.9217262330019814</v>
+        <v>0.8854070183774415</v>
       </c>
       <c r="O3">
-        <v>0.9723754741800223</v>
+        <v>0.9323643795891093</v>
       </c>
       <c r="P3">
-        <v>0.9723754741800223</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="Q3">
-        <v>0.9749617196687027</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="R3">
-        <v>0.9749617196687027</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="S3">
-        <v>0.980598751019059</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="T3">
-        <v>0.980598751019059</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="U3">
-        <v>0.980598751019059</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="V3">
-        <v>0.980598751019059</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="W3">
-        <v>0.9890125082912117</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="X3">
-        <v>0.9953043048850937</v>
+        <v>0.972483148037445</v>
       </c>
       <c r="Y3">
-        <v>0.9953043048850937</v>
+        <v>0.9793154868354405</v>
       </c>
       <c r="Z3">
-        <v>0.9953043048850937</v>
+        <v>0.9793154868354405</v>
       </c>
       <c r="AA3">
-        <v>0.9953043048850937</v>
+        <v>0.9793154868354405</v>
       </c>
       <c r="AB3">
-        <v>0.9953043048850937</v>
+        <v>0.9793154868354405</v>
       </c>
       <c r="AC3">
-        <v>0.9953043048850937</v>
+        <v>0.9814622466334985</v>
       </c>
       <c r="AD3">
-        <v>0.9953043048850937</v>
+        <v>0.989843515546406</v>
       </c>
       <c r="AE3">
-        <v>0.9953043048850937</v>
+        <v>0.9941877713189721</v>
       </c>
       <c r="AF3">
-        <v>0.9953043048850937</v>
+        <v>0.9941877713189721</v>
       </c>
       <c r="AG3">
-        <v>0.9953043048850937</v>
+        <v>0.9941877713189721</v>
       </c>
       <c r="AH3">
-        <v>0.9953043048850937</v>
+        <v>0.9941877713189721</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>0.9941877713189721</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2917,728 +2947,737 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.189069297098704</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.189069297098704</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5862945877404876</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.615097401128312</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.70182659222155</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7649615784122774</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7867688187838108</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8680888195430789</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9137221125228796</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9190838937984452</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9190838937984452</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9250106215576627</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9339742403818615</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9339742403818615</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.9339742403818615</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.9339742403818615</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.9339742403818615</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9424075991993125</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.9424075991993125</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.9474048686982508</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.9484358357711294</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.9484358357711294</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9484358357711294</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9484358357711294</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.9646300601603607</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9815141287685467</v>
+        <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0.4121370161436298</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5499965798305694</v>
+      </c>
+      <c r="BA4">
+        <v>0.6529368576299855</v>
+      </c>
+      <c r="BB4">
+        <v>0.684762145047871</v>
+      </c>
+      <c r="BC4">
+        <v>0.7184339548268541</v>
+      </c>
+      <c r="BD4">
+        <v>0.7184339548268541</v>
+      </c>
+      <c r="BE4">
+        <v>0.7590645328836165</v>
+      </c>
+      <c r="BF4">
+        <v>0.8305083652805321</v>
+      </c>
+      <c r="BG4">
+        <v>0.8787059610674212</v>
+      </c>
+      <c r="BH4">
+        <v>0.8848958979361135</v>
+      </c>
+      <c r="BI4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BJ4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BK4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BL4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BM4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BN4">
+        <v>0.9530162416627858</v>
+      </c>
+      <c r="BO4">
+        <v>0.9537466860451719</v>
+      </c>
+      <c r="BP4">
+        <v>0.965388945060942</v>
+      </c>
+      <c r="BQ4">
+        <v>0.965388945060942</v>
+      </c>
+      <c r="BR4">
+        <v>0.9817871826744174</v>
+      </c>
+      <c r="BS4">
+        <v>0.9914066253067896</v>
+      </c>
+      <c r="BT4">
+        <v>0.9914066253067896</v>
+      </c>
+      <c r="BU4">
+        <v>0.9914066253067896</v>
+      </c>
+      <c r="BV4">
+        <v>0.9914066253067896</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.262894280987862</v>
+      </c>
+      <c r="G5">
+        <v>0.2831883290195908</v>
+      </c>
+      <c r="H5">
+        <v>0.5667359944228254</v>
+      </c>
+      <c r="I5">
+        <v>0.5835210884334989</v>
+      </c>
+      <c r="J5">
+        <v>0.6891291691933001</v>
+      </c>
+      <c r="K5">
+        <v>0.6918720070737334</v>
+      </c>
+      <c r="L5">
+        <v>0.7295822725733101</v>
+      </c>
+      <c r="M5">
+        <v>0.796367121647736</v>
+      </c>
+      <c r="N5">
+        <v>0.838092354242554</v>
+      </c>
+      <c r="O5">
+        <v>0.8654741026547332</v>
+      </c>
+      <c r="P5">
+        <v>0.9399058060120276</v>
+      </c>
+      <c r="Q5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="R5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="S5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="T5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="U5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="V5">
+        <v>0.9423448634912963</v>
+      </c>
+      <c r="W5">
+        <v>0.9477557942714135</v>
+      </c>
+      <c r="X5">
+        <v>0.9477557942714135</v>
+      </c>
+      <c r="Y5">
+        <v>0.9546169606822095</v>
+      </c>
+      <c r="Z5">
+        <v>0.9750748009786229</v>
+      </c>
+      <c r="AA5">
+        <v>0.9750748009786229</v>
+      </c>
+      <c r="AB5">
+        <v>0.9750748009786229</v>
+      </c>
+      <c r="AC5">
+        <v>0.9750748009786229</v>
+      </c>
+      <c r="AD5">
+        <v>0.9857528584820917</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2583014323283143</v>
+      </c>
+      <c r="E6">
+        <v>0.2583014323283143</v>
+      </c>
+      <c r="F6">
+        <v>0.5722489535302161</v>
+      </c>
+      <c r="G6">
+        <v>0.5998921794162414</v>
+      </c>
+      <c r="H6">
+        <v>0.7131437707929977</v>
+      </c>
+      <c r="I6">
+        <v>0.7401627859853898</v>
+      </c>
+      <c r="J6">
+        <v>0.753074472647623</v>
+      </c>
+      <c r="K6">
+        <v>0.8014834083577842</v>
+      </c>
+      <c r="L6">
+        <v>0.8546952509972429</v>
+      </c>
+      <c r="M6">
+        <v>0.8546952509972429</v>
+      </c>
+      <c r="N6">
+        <v>0.8980241210840599</v>
+      </c>
+      <c r="O6">
+        <v>0.9090297134839287</v>
+      </c>
+      <c r="P6">
+        <v>0.9109427505172409</v>
+      </c>
+      <c r="Q6">
+        <v>0.9110506911893341</v>
+      </c>
+      <c r="R6">
+        <v>0.9110506911893341</v>
+      </c>
+      <c r="S6">
+        <v>0.9110506911893341</v>
+      </c>
+      <c r="T6">
+        <v>0.9110506911893341</v>
+      </c>
+      <c r="U6">
+        <v>0.9177686453459152</v>
+      </c>
+      <c r="V6">
+        <v>0.9177686453459152</v>
+      </c>
+      <c r="W6">
+        <v>0.9177686453459152</v>
+      </c>
+      <c r="X6">
+        <v>0.9322593477595099</v>
+      </c>
+      <c r="Y6">
+        <v>0.9322593477595099</v>
+      </c>
+      <c r="Z6">
+        <v>0.9322593477595099</v>
+      </c>
+      <c r="AA6">
+        <v>0.9322593477595099</v>
+      </c>
+      <c r="AB6">
+        <v>0.9436651294339488</v>
+      </c>
+      <c r="AC6">
+        <v>0.9767442394014625</v>
+      </c>
+      <c r="AD6">
+        <v>0.9924988409013605</v>
+      </c>
+      <c r="AE6">
+        <v>0.9924988409013605</v>
+      </c>
+      <c r="AF6">
+        <v>0.9924988409013605</v>
+      </c>
+      <c r="AG6">
+        <v>0.9924988409013605</v>
+      </c>
+      <c r="AH6">
+        <v>0.9924988409013605</v>
+      </c>
+      <c r="AI6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK4">
+      <c r="AK6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AL4">
+      <c r="AL6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AM4">
+      <c r="AM6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AN4">
+      <c r="AN6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AO4">
+      <c r="AO6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AP4">
+      <c r="AP6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AR4">
+      <c r="AR6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AS4">
+      <c r="AS6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AT4">
+      <c r="AT6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AU4">
+      <c r="AU6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AV4">
+      <c r="AV6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AW4">
+      <c r="AW6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AX4">
+      <c r="AX6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AY4">
+      <c r="AY6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BA4">
+      <c r="BA6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BB4">
+      <c r="BB6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BC4">
+      <c r="BC6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BD4">
+      <c r="BD6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BE4">
+      <c r="BE6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BF4">
+      <c r="BF6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BG4">
+      <c r="BG6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BH4">
+      <c r="BH6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BI4">
+      <c r="BI6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BK4">
+      <c r="BK6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BL4">
+      <c r="BL6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BM4">
+      <c r="BM6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BN4">
+      <c r="BN6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BO4">
+      <c r="BO6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BP4">
+      <c r="BP6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BR4">
+      <c r="BR6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BS4">
+      <c r="BS6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BT4">
+      <c r="BT6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BU4">
+      <c r="BU6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BV4">
+      <c r="BV6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BW4">
+      <c r="BW6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BX4">
+      <c r="BX6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BY4">
+      <c r="BY6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="CA4">
+      <c r="CA6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="CB4">
+      <c r="CB6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="CC4">
+      <c r="CC6">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:81">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0.3412209165654894</v>
-      </c>
-      <c r="AY5">
-        <v>0.4842792397415247</v>
-      </c>
-      <c r="AZ5">
-        <v>0.6433187042130012</v>
-      </c>
-      <c r="BA5">
-        <v>0.6433187042130012</v>
-      </c>
-      <c r="BB5">
-        <v>0.7574612832314058</v>
-      </c>
-      <c r="BC5">
-        <v>0.7574612832314058</v>
-      </c>
-      <c r="BD5">
-        <v>0.8003089862387436</v>
-      </c>
-      <c r="BE5">
-        <v>0.8835304180184445</v>
-      </c>
-      <c r="BF5">
-        <v>0.917712015708451</v>
-      </c>
-      <c r="BG5">
-        <v>0.917712015708451</v>
-      </c>
-      <c r="BH5">
-        <v>0.934492925899957</v>
-      </c>
-      <c r="BI5">
-        <v>0.934492925899957</v>
-      </c>
-      <c r="BJ5">
-        <v>0.949967688315621</v>
-      </c>
-      <c r="BK5">
-        <v>0.949967688315621</v>
-      </c>
-      <c r="BL5">
-        <v>0.949967688315621</v>
-      </c>
-      <c r="BM5">
-        <v>0.949967688315621</v>
-      </c>
-      <c r="BN5">
-        <v>0.949967688315621</v>
-      </c>
-      <c r="BO5">
-        <v>0.957797053606929</v>
-      </c>
-      <c r="BP5">
-        <v>0.957797053606929</v>
-      </c>
-      <c r="BQ5">
-        <v>0.9633004871529725</v>
-      </c>
-      <c r="BR5">
-        <v>0.9633004871529725</v>
-      </c>
-      <c r="BS5">
-        <v>0.9633004871529725</v>
-      </c>
-      <c r="BT5">
-        <v>0.9633004871529725</v>
-      </c>
-      <c r="BU5">
-        <v>0.9633004871529725</v>
-      </c>
-      <c r="BV5">
-        <v>0.9735584176443973</v>
-      </c>
-      <c r="BW5">
-        <v>0.974664751327584</v>
-      </c>
-      <c r="BX5">
-        <v>0.974664751327584</v>
-      </c>
-      <c r="BY5">
-        <v>0.974664751327584</v>
-      </c>
-      <c r="BZ5">
-        <v>0.974664751327584</v>
-      </c>
-      <c r="CA5">
-        <v>0.974664751327584</v>
-      </c>
-      <c r="CB5">
-        <v>0.9815960920758038</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81">
-      <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.2569698978366779</v>
-      </c>
-      <c r="E6">
-        <v>0.2569698978366779</v>
-      </c>
-      <c r="F6">
-        <v>0.5855163950629013</v>
-      </c>
-      <c r="G6">
-        <v>0.5945907994795405</v>
-      </c>
-      <c r="H6">
-        <v>0.67551206509921</v>
-      </c>
-      <c r="I6">
-        <v>0.7101707550833459</v>
-      </c>
-      <c r="J6">
-        <v>0.7176444125144994</v>
-      </c>
-      <c r="K6">
-        <v>0.845312206736929</v>
-      </c>
-      <c r="L6">
-        <v>0.9098605188920244</v>
-      </c>
-      <c r="M6">
-        <v>0.9098605188920244</v>
-      </c>
-      <c r="N6">
-        <v>0.910152162275605</v>
-      </c>
-      <c r="O6">
-        <v>0.9201342496895901</v>
-      </c>
-      <c r="P6">
-        <v>0.9426002477282269</v>
-      </c>
-      <c r="Q6">
-        <v>0.9426002477282269</v>
-      </c>
-      <c r="R6">
-        <v>0.9426002477282269</v>
-      </c>
-      <c r="S6">
-        <v>0.9426002477282269</v>
-      </c>
-      <c r="T6">
-        <v>0.9442461536287453</v>
-      </c>
-      <c r="U6">
-        <v>0.9483658543286885</v>
-      </c>
-      <c r="V6">
-        <v>0.9483658543286885</v>
-      </c>
-      <c r="W6">
-        <v>0.9584626229163234</v>
-      </c>
-      <c r="X6">
-        <v>0.9584626229163234</v>
-      </c>
-      <c r="Y6">
-        <v>0.9584626229163234</v>
-      </c>
-      <c r="Z6">
-        <v>0.9584626229163234</v>
-      </c>
-      <c r="AA6">
-        <v>0.9584626229163234</v>
-      </c>
-      <c r="AB6">
-        <v>0.9614459489953496</v>
-      </c>
-      <c r="AC6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AD6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AE6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AF6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AG6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AH6">
-        <v>0.9707314162012006</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>1</v>
-      </c>
-      <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BY6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
-        <v>1</v>
-      </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6">
-        <v>1</v>
+      <c r="CD6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3656,66 +3695,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5759071210013194</v>
+        <v>0.606811708550173</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -3724,39 +3763,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5040086009710726</v>
+        <v>0.5256746319440073</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -3765,39 +3804,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5862945877404876</v>
+        <v>0.5499965798305694</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -3806,36 +3845,36 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6433187042130012</v>
+        <v>0.5667359944228254</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3847,21 +3886,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3876,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5855163950629013</v>
+        <v>0.5722489535302161</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3888,16 +3927,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3915,63 +3954,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8079908497926247</v>
+        <v>0.7094880366336481</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -3983,39 +4022,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.844790574125505</v>
+        <v>0.7122368097651275</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -4024,36 +4063,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.70182659222155</v>
+        <v>0.7184339548268541</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -4065,39 +4104,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7574612832314058</v>
+        <v>0.7295822725733101</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4106,21 +4145,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -4129,16 +4168,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7101707550833459</v>
+        <v>0.7131437707929977</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -4147,16 +4186,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4174,66 +4213,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8079908497926247</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -4242,36 +4281,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.844790574125505</v>
+        <v>0.8854070183774415</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4283,36 +4322,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8680888195430789</v>
+        <v>0.8305083652805321</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -4324,39 +4363,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8003089862387436</v>
+        <v>0.838092354242554</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4365,21 +4404,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4394,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.845312206736929</v>
+        <v>0.8014834083577842</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4406,16 +4445,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4433,54 +4472,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -4489,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9102217575666295</v>
+        <v>0.9200873006548078</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -4501,39 +4540,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9323643795891093</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9217262330019814</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -4542,39 +4581,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9137221125228796</v>
+        <v>0.9530162416627858</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -4583,39 +4622,39 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.917712015708451</v>
+        <v>0.9399058060120276</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4624,21 +4663,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4647,16 +4686,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9098605188920244</v>
+        <v>0.9090297134839287</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -4665,16 +4704,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
